--- a/マトリックス_テンプレート.xlsx
+++ b/マトリックス_テンプレート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0dbc153196371d5/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{D8A95073-851B-4BB6-98D1-9B012EB3D49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8617CC2-778F-4387-973C-E16F18F7707E}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="8_{D8A95073-851B-4BB6-98D1-9B012EB3D49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CFF4EC0-9860-41A2-A15C-D5170F3D3B60}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E4926199-CD19-414B-81D5-2FCFFB720DE4}"/>
   </bookViews>
@@ -36,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>D</t>
     <phoneticPr fontId="1"/>
@@ -136,6 +124,14 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>A～C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -172,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -367,51 +363,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -745,563 +822,526 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125B6EA1-5077-40CB-AEF0-88E9C2C6B9BA}">
-  <dimension ref="B2:K20"/>
+  <dimension ref="A2:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="8" max="8" width="8.796875" customWidth="1"/>
-    <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="17"/>
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="18"/>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="12"/>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="4"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="4"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="4"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="4"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="4"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="4"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="4"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="4"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="4"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="4"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="4"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B3:F3"/>
+  <mergeCells count="6">
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41983BC2-A1AD-417F-8DE5-B6BEFC97EB33}">
-  <dimension ref="B2:K20"/>
+  <dimension ref="A2:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="17"/>
+      <c r="B3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="18"/>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B7" s="5"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B8" s="5"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B9" s="5"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B10" s="5"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B11" s="5"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B12" s="5"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B13" s="5"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B14" s="5"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B15" s="5"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B16" s="5"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B17" s="5"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B19" s="5"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B20" s="8"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="12"/>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="4"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="4"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="4"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="4"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="4"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="4"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="4"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="4"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="4"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="4"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="4"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="K3:K4"/>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
